--- a/Data2/XLS/EUR/EURSwap.xlsx
+++ b/Data2/XLS/EUR/EURSwap.xlsx
@@ -1517,6 +1517,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1533,7 +1534,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2240,20 +2240,20 @@
       <c r="A2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="232" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="232"/>
+      <c r="C2" s="233"/>
       <c r="D2" s="60" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="231" t="s">
+      <c r="F2" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="232"/>
+      <c r="G2" s="233"/>
       <c r="H2" s="58" t="s">
         <v>46</v>
       </c>
@@ -2266,10 +2266,10 @@
       <c r="K2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="231" t="s">
+      <c r="L2" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="232"/>
+      <c r="M2" s="233"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -2856,23 +2856,23 @@
         <v>34</v>
       </c>
       <c r="B14" s="17"/>
-      <c r="C14" s="102" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D14" s="138" t="e">
-        <f ca="1">_xll.qlSchedule(,C4,C8,C9,C3,C10,C11,C12,C13,C5,C6)</f>
-        <v>#NAME?</v>
+      <c r="C14" s="102" t="str">
+        <f t="shared" si="0"/>
+        <v>obj_00867#0000</v>
+      </c>
+      <c r="D14" s="138" t="str">
+        <f>_xll.qlSchedule(,,,,C4,C8,C9,C3,C10,C11,C12,C13,D5,D6)</f>
+        <v>obj_00867#0000</v>
       </c>
       <c r="E14" s="139"/>
       <c r="F14" s="115"/>
-      <c r="G14" s="70" t="e">
-        <f ca="1">IF(ISBLANK(F14),H14,F14)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H14" s="138" t="e">
-        <f ca="1">_xll.qlSchedule(,G4,G8,G9,G3,G10,G11,G12,G13,G5,G6)</f>
-        <v>#NAME?</v>
+      <c r="G14" s="70" t="str">
+        <f>IF(ISBLANK(F14),H14,F14)</f>
+        <v>obj_00868#0000</v>
+      </c>
+      <c r="H14" s="138" t="str">
+        <f>_xll.qlSchedule(,,,,G4,G8,G9,G3,G10,G11,G12,G13,G5,G6)</f>
+        <v>obj_00868#0000</v>
       </c>
       <c r="I14" s="139"/>
       <c r="J14" s="5"/>
@@ -4343,8 +4343,8 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="239" t="str">
-        <f>_xll.ohRangeRetrieveError(E4)</f>
+      <c r="B57" s="231" t="str">
+        <f>_xll.ohRangeRetrieveError(D14)</f>
         <v/>
       </c>
       <c r="C57" s="1"/>
@@ -5027,9 +5027,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="35" t="e">
-        <f ca="1">Pricing!$C$14</f>
-        <v>#NAME?</v>
+      <c r="B1" s="35" t="str">
+        <f>Pricing!$C$14</f>
+        <v>obj_00867#0000</v>
       </c>
       <c r="C1" s="34" t="str">
         <f>UPPER(Pricing!$C$18)</f>
@@ -9554,29 +9554,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
-      <c r="N1" s="234"/>
-      <c r="O1" s="234"/>
-      <c r="P1" s="234"/>
-      <c r="Q1" s="234"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="234"/>
-      <c r="T1" s="234"/>
-      <c r="U1" s="235"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="235"/>
+      <c r="U1" s="236"/>
     </row>
     <row r="2" spans="1:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="193" t="s">
@@ -20014,9 +20014,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="35" t="e">
-        <f ca="1">Pricing!$G$14</f>
-        <v>#NAME?</v>
+      <c r="B1" s="35" t="str">
+        <f>Pricing!$G$14</f>
+        <v>obj_00868#0000</v>
       </c>
       <c r="C1" s="34" t="str">
         <f>UPPER(Pricing!$G$18)</f>
@@ -24546,29 +24546,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="237"/>
-      <c r="T1" s="237"/>
-      <c r="U1" s="238"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="238"/>
+      <c r="T1" s="238"/>
+      <c r="U1" s="239"/>
     </row>
     <row r="2" spans="1:40" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="193" t="s">

--- a/Data2/XLS/EUR/EURSwap.xlsx
+++ b/Data2/XLS/EUR/EURSwap.xlsx
@@ -2310,7 +2310,7 @@
       </c>
       <c r="J3" s="103" t="e">
         <f ca="1">FirstLegCF</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" s="29" t="b">
         <f>C27</f>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="J4" s="21" t="e">
         <f ca="1">SecondLegCF</f>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K4" s="27" t="b">
         <f>G27</f>
@@ -3528,21 +3528,21 @@
       <c r="B28" s="105"/>
       <c r="C28" s="106" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D28" s="130" t="e">
-        <f ca="1">_xll.qlIborLeg(B28,C16,_xll.ohPack(FirstLegAdmortization!Effective),C14,C19,C20,C21,C22,C23,C24,C25,C26)</f>
-        <v>#NAME?</v>
+        <f ca="1">_xll.qlIborLeg(,B28,,,C16,_xll.ohPack(FirstLegAdmortization!Effective),C14,C19,C20,C21,C22,C23,C24,C25,C26)</f>
+        <v>#NUM!</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="115"/>
       <c r="G28" s="75" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H28" s="130" t="e">
         <f ca="1">_xll.qlIborLeg(F28,G16,_xll.ohPack(SecondLegAdmortization!Effective),G14,G19,G20,G21,G22,G23,G24,G25,G26)</f>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="5"/>
@@ -4344,8 +4344,8 @@
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="231" t="str">
-        <f>_xll.ohRangeRetrieveError(D14)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(D28)</f>
+        <v xml:space="preserve">qlIborLeg - operToVectorImpl: error converting parameter 'nominals' to type 'double' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'double' - Error in call to Excel: (xlSpecial | 2) callback failed:  Command failed </v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -5014,7 +5014,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Data2/XLS/EUR/EURSwap.xlsx
+++ b/Data2/XLS/EUR/EURSwap.xlsx
@@ -2183,7 +2183,7 @@
   <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2199,10 +2199,9 @@
     <col min="10" max="11" width="16.5" style="24" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="20.1640625" style="24" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="7" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9.33203125" style="2" collapsed="1"/>
-    <col min="17" max="16384" width="9.33203125" style="2"/>
+    <col min="14" max="14" width="17.83203125" style="24" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="7" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16384" width="9.33203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -2325,9 +2324,9 @@
       <c r="M3" s="141">
         <v>0</v>
       </c>
-      <c r="N3" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M3,L3,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="N3" s="1" t="str">
+        <f>_xll.qlLeg(EvaluationDate,,,,M3,L3)</f>
+        <v>obj_00867#0001</v>
       </c>
       <c r="O3" s="1" t="b">
         <v>1</v>
@@ -2376,16 +2375,16 @@
         <f>G27</f>
         <v>0</v>
       </c>
-      <c r="L4" s="142" t="e">
-        <f>_xll.qlCalendarAdvance($C$3,L3,"1D","f")</f>
-        <v>#NUM!</v>
+      <c r="L4" s="142">
+        <f>_xll.qlCalendarAdvance(,$C$3,L3,"1D","f")</f>
+        <v>42137</v>
       </c>
       <c r="M4" s="143">
         <v>0</v>
       </c>
-      <c r="N4" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M4,L4,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="N4" s="1" t="str">
+        <f>_xll.qlLeg(EvaluationDate,,,,M4,L4)</f>
+        <v>obj_0086b#0000</v>
       </c>
       <c r="O4" s="1" t="b">
         <f t="shared" ref="O4:O26" si="3">NOT(M4=0)</f>
@@ -2427,23 +2426,23 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J5" s="30" t="e">
-        <f ca="1">AdditionalCF</f>
-        <v>#NAME?</v>
+      <c r="J5" s="30" t="str">
+        <f>AdditionalCF</f>
+        <v>obj_00868#0000</v>
       </c>
       <c r="K5" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="L5" s="142" t="e">
-        <f>_xll.qlCalendarAdvance($C$3,L4,"1D","f")</f>
-        <v>#VALUE!</v>
+      <c r="L5" s="142">
+        <f>_xll.qlCalendarAdvance(,$C$3,L4,"1D","f")</f>
+        <v>42138</v>
       </c>
       <c r="M5" s="143">
         <v>0</v>
       </c>
-      <c r="N5" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M5,L5,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="N5" s="1" t="str">
+        <f>_xll.qlLeg(EvaluationDate,,,,M5,L5)</f>
+        <v>obj_00869#0000</v>
       </c>
       <c r="O5" s="1" t="b">
         <f t="shared" si="3"/>
@@ -2487,16 +2486,16 @@
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="142" t="e">
-        <f>_xll.qlCalendarAdvance($C$3,L5,"1D","f")</f>
-        <v>#VALUE!</v>
+      <c r="L6" s="142">
+        <f>_xll.qlCalendarAdvance(,$C$3,L5,"1D","f")</f>
+        <v>42139</v>
       </c>
       <c r="M6" s="143">
         <v>0</v>
       </c>
-      <c r="N6" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M6,L6,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="N6" s="1" t="str">
+        <f>_xll.qlLeg(EvaluationDate,,,,M6,L6)</f>
+        <v>obj_0086a#0000</v>
       </c>
       <c r="O6" s="1" t="b">
         <f t="shared" si="3"/>
@@ -2545,8 +2544,8 @@
         <v>0</v>
       </c>
       <c r="N7" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M7,L7,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M7,L7)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O7" s="1" t="b">
         <f t="shared" si="3"/>
@@ -2595,8 +2594,8 @@
         <v>0</v>
       </c>
       <c r="N8" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M8,L8,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M8,L8)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O8" s="1" t="b">
         <f t="shared" si="3"/>
@@ -2644,8 +2643,8 @@
         <v>0</v>
       </c>
       <c r="N9" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M9,L9,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M9,L9)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O9" s="1" t="b">
         <f t="shared" si="3"/>
@@ -2694,8 +2693,8 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M10,L10,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M10,L10)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O10" s="1" t="b">
         <f t="shared" si="3"/>
@@ -2744,8 +2743,8 @@
         <v>0</v>
       </c>
       <c r="N11" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M11,L11,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M11,L11)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O11" s="1" t="b">
         <f t="shared" si="3"/>
@@ -2792,8 +2791,8 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M12,L12,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M12,L12)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O12" s="1" t="b">
         <f t="shared" si="3"/>
@@ -2840,8 +2839,8 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M13,L13,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M13,L13)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O13" s="1" t="b">
         <f t="shared" si="3"/>
@@ -2884,8 +2883,8 @@
         <v>0</v>
       </c>
       <c r="N14" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M14,L14,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M14,L14)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O14" s="1" t="b">
         <f t="shared" si="3"/>
@@ -2914,8 +2913,8 @@
         <v>0</v>
       </c>
       <c r="N15" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M15,L15,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M15,L15)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O15" s="1" t="b">
         <f t="shared" si="3"/>
@@ -2962,8 +2961,8 @@
         <v>0</v>
       </c>
       <c r="N16" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M16,L16,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M16,L16)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O16" s="1" t="b">
         <f t="shared" si="3"/>
@@ -3010,8 +3009,8 @@
         <v>0</v>
       </c>
       <c r="N17" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M17,L17,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M17,L17)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O17" s="1" t="b">
         <f t="shared" si="3"/>
@@ -3058,8 +3057,8 @@
         <v>0</v>
       </c>
       <c r="N18" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M18,L18,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M18,L18)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O18" s="1" t="b">
         <f t="shared" si="3"/>
@@ -3108,8 +3107,8 @@
         <v>0</v>
       </c>
       <c r="N19" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M19,L19,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M19,L19)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O19" s="1" t="b">
         <f t="shared" si="3"/>
@@ -3156,8 +3155,8 @@
         <v>0</v>
       </c>
       <c r="N20" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M20,L20,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M20,L20)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O20" s="1" t="b">
         <f t="shared" si="3"/>
@@ -3206,8 +3205,8 @@
         <v>0</v>
       </c>
       <c r="N21" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M21,L21,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M21,L21)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O21" s="1" t="b">
         <f t="shared" si="3"/>
@@ -3256,8 +3255,8 @@
         <v>0</v>
       </c>
       <c r="N22" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M22,L22,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M22,L22)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O22" s="1" t="b">
         <f t="shared" si="3"/>
@@ -3308,8 +3307,8 @@
         <v>0</v>
       </c>
       <c r="N23" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M23,L23,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M23,L23)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O23" s="1" t="b">
         <f t="shared" si="3"/>
@@ -3362,8 +3361,8 @@
         <v>0</v>
       </c>
       <c r="N24" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M24,L24,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M24,L24)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O24" s="1" t="b">
         <f t="shared" si="3"/>
@@ -3410,8 +3409,8 @@
         <v>0</v>
       </c>
       <c r="N25" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M25,L25,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M25,L25)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O25" s="1" t="b">
         <f t="shared" si="3"/>
@@ -3460,8 +3459,8 @@
         <v>0</v>
       </c>
       <c r="N26" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M26,L26,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlLeg(EvaluationDate,,,,M26,L26)</f>
+        <v>#NUM!</v>
       </c>
       <c r="O26" s="1" t="b">
         <f t="shared" si="3"/>
@@ -3503,16 +3502,16 @@
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="142" t="e">
-        <f>_xll.qlCalendarAdjust($C$3,E8,$C$11)</f>
-        <v>#NUM!</v>
+      <c r="L27" s="142">
+        <f>_xll.qlCalendarAdjust(,$C$3,E8,$C$11)</f>
+        <v>45791</v>
       </c>
       <c r="M27" s="143">
         <v>0</v>
       </c>
-      <c r="N27" s="1" t="e">
-        <f ca="1">_xll.qlLeg(,M27,L27,,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="N27" s="1" t="str">
+        <f>_xll.qlLeg(EvaluationDate,,,,M27,L27)</f>
+        <v>obj_0086c#0000</v>
       </c>
       <c r="O27" s="1" t="b">
         <v>1</v>
@@ -3550,13 +3549,13 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="144"/>
-      <c r="M28" s="65" t="e">
-        <f ca="1">IF(ISBLANK(L28),N28,L28)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N28" s="26" t="e">
-        <f ca="1">_xll.qlMultiPhaseLeg(,_xll.ohFilter(N3:N27,O3:O27),FALSE)</f>
-        <v>#NAME?</v>
+      <c r="M28" s="65" t="str">
+        <f>IF(ISBLANK(L28),N28,L28)</f>
+        <v>obj_00868#0000</v>
+      </c>
+      <c r="N28" s="26" t="str">
+        <f>_xll.qlMultiPhaseLeg(,,,,N3:N6,FALSE)</f>
+        <v>obj_00868#0000</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3570,9 +3569,9 @@
         <v>41</v>
       </c>
       <c r="B29" s="132"/>
-      <c r="C29" s="19" t="e">
-        <f ca="1">_xll.qlSwap(B29,$J$3:$J$5,$K$3:$K$5)</f>
-        <v>#NAME?</v>
+      <c r="C29" s="19" t="str">
+        <f>_xll.qlSwap(,B29,,,$J$3:$J$5,$K$3:$K$5)</f>
+        <v>obj_0086d#0000</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="9"/>
@@ -3871,7 +3870,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="71" t="s">
         <v>49</v>
       </c>
@@ -3900,7 +3899,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="67" t="s">
         <v>50</v>
       </c>
@@ -3930,7 +3929,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="67" t="s">
         <v>51</v>
       </c>
@@ -3960,7 +3959,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="69" t="s">
         <v>42</v>
       </c>
@@ -3990,7 +3989,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="150" t="s">
         <v>29</v>
       </c>
@@ -4017,7 +4016,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="9"/>
@@ -4039,7 +4038,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="64" t="s">
         <v>20</v>
       </c>
@@ -4095,7 +4094,7 @@
       <c r="B47" s="85"/>
       <c r="C47" s="86" t="e">
         <f ca="1">_xll.qlInstrumentNPV(C45,SwapID)</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -4144,14 +4143,14 @@
       <c r="B49" s="152"/>
       <c r="C49" s="153" t="e">
         <f ca="1">C$25-NPV/C$51/10000</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="D49" s="156"/>
       <c r="E49" s="156"/>
       <c r="F49" s="152"/>
       <c r="G49" s="153" t="e">
         <f ca="1">G$25-NPV/G$51/10000</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>

--- a/Data2/XLS/EUR/EURSwap.xlsx
+++ b/Data2/XLS/EUR/EURSwap.xlsx
@@ -1609,7 +1609,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
       </sheetData>
@@ -1617,7 +1617,7 @@
       <sheetData sheetId="2">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EUR6M#0000</v>
+            <v>EUR6M#0001</v>
           </cell>
         </row>
       </sheetData>
@@ -1652,7 +1652,7 @@
       <sheetData sheetId="7">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EURTND_Quote#0000</v>
+            <v>EURTND_Quote#0001</v>
           </cell>
         </row>
       </sheetData>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="D6" s="229">
         <f>[1]!TriggerCounter</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="224"/>
     </row>
@@ -2182,9 +2182,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2311,7 +2309,7 @@
       </c>
       <c r="J3" s="103" t="str">
         <f>FirstLegCF</f>
-        <v>obj_00868#0003</v>
+        <v>obj_0086f#0000</v>
       </c>
       <c r="K3" s="29" t="b">
         <f>C27</f>
@@ -2326,7 +2324,7 @@
       </c>
       <c r="N3" s="1" t="str">
         <f>_xll.qlLeg(EvaluationDate,,,,M3,L3)</f>
-        <v>obj_00867#0001</v>
+        <v>obj_00868#0000</v>
       </c>
       <c r="O3" s="1" t="b">
         <v>1</v>
@@ -2369,7 +2367,7 @@
       </c>
       <c r="J4" s="21" t="str">
         <f>SecondLegCF</f>
-        <v>obj_0086a#0000</v>
+        <v>obj_00870#0000</v>
       </c>
       <c r="K4" s="27" t="b">
         <f>G27</f>
@@ -2384,7 +2382,7 @@
       </c>
       <c r="N4" s="1" t="str">
         <f>_xll.qlLeg(EvaluationDate,,,,M4,L4)</f>
-        <v>obj_0086b#0000</v>
+        <v>obj_00869#0000</v>
       </c>
       <c r="O4" s="1" t="b">
         <f t="shared" ref="O4:O26" si="3">NOT(M4=0)</f>
@@ -2428,7 +2426,7 @@
       </c>
       <c r="J5" s="30" t="str">
         <f>AdditionalCF</f>
-        <v>obj_00868#0000</v>
+        <v>obj_00899#0000</v>
       </c>
       <c r="K5" s="30" t="b">
         <v>0</v>
@@ -2442,7 +2440,7 @@
       </c>
       <c r="N5" s="1" t="str">
         <f>_xll.qlLeg(EvaluationDate,,,,M5,L5)</f>
-        <v>obj_00869#0000</v>
+        <v>obj_0086a#0000</v>
       </c>
       <c r="O5" s="1" t="b">
         <f t="shared" si="3"/>
@@ -2495,7 +2493,7 @@
       </c>
       <c r="N6" s="1" t="str">
         <f>_xll.qlLeg(EvaluationDate,,,,M6,L6)</f>
-        <v>obj_0086a#0000</v>
+        <v>obj_0086b#0000</v>
       </c>
       <c r="O6" s="1" t="b">
         <f t="shared" si="3"/>
@@ -2859,21 +2857,21 @@
       <c r="B14" s="17"/>
       <c r="C14" s="102" t="str">
         <f t="shared" si="0"/>
-        <v>obj_00867#0000</v>
+        <v>obj_0086d#0000</v>
       </c>
       <c r="D14" s="138" t="str">
         <f>_xll.qlSchedule(,,,,C4,C8,C9,C3,C10,C11,C12,C13,D5,D6)</f>
-        <v>obj_00867#0000</v>
+        <v>obj_0086d#0000</v>
       </c>
       <c r="E14" s="139"/>
       <c r="F14" s="115"/>
       <c r="G14" s="70" t="str">
         <f>IF(ISBLANK(F14),H14,F14)</f>
-        <v>obj_00869#0000</v>
+        <v>obj_0086e#0000</v>
       </c>
       <c r="H14" s="138" t="str">
         <f>_xll.qlSchedule(,,,,G4,G8,G9,G3,G10,G11,G12,G13,G5,G6)</f>
-        <v>obj_00869#0000</v>
+        <v>obj_0086e#0000</v>
       </c>
       <c r="I14" s="139"/>
       <c r="J14" s="5"/>
@@ -3529,21 +3527,21 @@
       <c r="B28" s="105"/>
       <c r="C28" s="106" t="str">
         <f t="shared" si="5"/>
-        <v>obj_00868#0003</v>
+        <v>obj_0086f#0000</v>
       </c>
       <c r="D28" s="130" t="str">
         <f>_xll.qlIborLeg(,B28,,,C16,_xll.ohPack(FirstLegAdmortization!Effective),C14,C19,C20,C21,C22,C23,C24,C25,C26)</f>
-        <v>obj_00868#0003</v>
+        <v>obj_0086f#0000</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="115"/>
       <c r="G28" s="75" t="str">
         <f t="shared" si="6"/>
-        <v>obj_0086a#0000</v>
+        <v>obj_00870#0000</v>
       </c>
       <c r="H28" s="130" t="str">
         <f>_xll.qlIborLeg(,F28,,,G16,_xll.ohPack(SecondLegAdmortization!Effective),G14,G19,G20,G21,G22,G23,G24,G25,G26)</f>
-        <v>obj_0086a#0000</v>
+        <v>obj_00870#0000</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="5"/>
@@ -3551,11 +3549,11 @@
       <c r="L28" s="144"/>
       <c r="M28" s="65" t="str">
         <f>IF(ISBLANK(L28),N28,L28)</f>
-        <v>obj_00868#0000</v>
+        <v>obj_00899#0000</v>
       </c>
       <c r="N28" s="26" t="str">
         <f>_xll.qlMultiPhaseLeg(,,,,N3:N6,FALSE)</f>
-        <v>obj_00868#0000</v>
+        <v>obj_00899#0000</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3571,7 +3569,7 @@
       <c r="B29" s="132"/>
       <c r="C29" s="19" t="str">
         <f>_xll.qlSwap(,B29,,,$J$3:$J$5,$K$3:$K$5)</f>
-        <v>obj_0086d#0000</v>
+        <v>obj_0089a#0000</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="9"/>
@@ -3964,13 +3962,13 @@
         <v>42</v>
       </c>
       <c r="B42" s="151"/>
-      <c r="C42" s="74" t="e">
-        <f ca="1">IF(ISBLANK(B42),D42,B42)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D42" s="149" t="e">
-        <f ca="1">_xll.qlDiscountingSwapEngine(,DiscountCurve,IncludeSettlementDate,SettlementDate,NPVDate)</f>
-        <v>#NAME?</v>
+      <c r="C42" s="74" t="str">
+        <f>IF(ISBLANK(B42),D42,B42)</f>
+        <v>obj_00867#0001</v>
+      </c>
+      <c r="D42" s="149" t="str">
+        <f>_xll.qlDiscountingSwapEngine(,,,,DiscountCurve,IncludeSettlementDate,SettlementDate,NPVDate)</f>
+        <v>obj_00867#0001</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
@@ -3994,9 +3992,9 @@
         <v>29</v>
       </c>
       <c r="B43" s="152"/>
-      <c r="C43" s="153" t="e">
-        <f ca="1">_xll.qlInstrumentSetPricingEngine(SwapID,C42)</f>
-        <v>#VALUE!</v>
+      <c r="C43" s="153" t="b">
+        <f>_xll.qlInstrumentSetPricingEngine(,SwapID,C42)</f>
+        <v>1</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -4043,9 +4041,9 @@
         <v>20</v>
       </c>
       <c r="B45" s="83"/>
-      <c r="C45" s="84" t="e">
+      <c r="C45" s="84">
         <f ca="1">_xll.ohTrigger(AllTriggers,C43,ISERROR(C35),ISERROR(G35))</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
@@ -4092,9 +4090,9 @@
         <v>2</v>
       </c>
       <c r="B47" s="85"/>
-      <c r="C47" s="86" t="e">
+      <c r="C47" s="86">
         <f ca="1">_xll.qlInstrumentNPV(C45,SwapID)</f>
-        <v>#NUM!</v>
+        <v>90670.531499036908</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -4143,14 +4141,14 @@
       <c r="B49" s="152"/>
       <c r="C49" s="153" t="e">
         <f ca="1">C$25-NPV/C$51/10000</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="D49" s="156"/>
       <c r="E49" s="156"/>
       <c r="F49" s="152"/>
       <c r="G49" s="153" t="e">
         <f ca="1">G$25-NPV/G$51/10000</f>
-        <v>#NUM!</v>
+        <v>#NAME?</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -5032,7 +5030,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="35" t="str">
         <f>Pricing!$C$14</f>
-        <v>obj_00867#0000</v>
+        <v>obj_0086d#0000</v>
       </c>
       <c r="C1" s="34" t="str">
         <f>UPPER(Pricing!$C$18)</f>
@@ -19669,7 +19667,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="35" t="str">
         <f>Pricing!$G$14</f>
-        <v>obj_00869#0000</v>
+        <v>obj_0086e#0000</v>
       </c>
       <c r="C1" s="34" t="str">
         <f>UPPER(Pricing!$G$18)</f>
